--- a/src/main/resources/testData2.xlsx
+++ b/src/main/resources/testData2.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\com.HealLifeHospital_Team1\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\HealLifeHospital_Team1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB8F817-2BA0-4BAE-B94E-183C7A0FF283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316320A8-D477-41C2-A555-88AA34EA67D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22610" yWindow="-200" windowWidth="15890" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30970" yWindow="930" windowWidth="23470" windowHeight="12710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deneme" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="72">
   <si>
     <t>1.column</t>
   </si>
@@ -230,13 +230,18 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>titel</t>
+  </si>
+  <si>
+    <t>Endoscopy planned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -647,6 +652,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
@@ -928,9 +936,11 @@
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
